--- a/src/predicciones/holt_winters/producto_218.xlsx
+++ b/src/predicciones/holt_winters/producto_218.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,575 +404,2995 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2.011721656837551</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3.011474163143099</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2.011245722675296</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3.011284800257911</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44938</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3.01103877685922</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44939</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3.011023084263361</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44940</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2.021441659917067</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44943</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2.021820646852621</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44944</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3.021573153158168</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44949</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2.021344712690365</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44951</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3.021383790272981</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44952</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3.02113776687429</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44953</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3.02112207427843</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44954</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2.031540649932137</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44955</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2.03191963686769</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44956</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3.031672143173238</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44957</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2.031443702705435</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44959</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3.03148278028805</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44960</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3.031236756889359</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44961</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3.031221064293499</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44962</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2.041639639947206</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44963</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2.04201862688276</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44964</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3.041771133188307</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44965</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2.041542692720504</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44966</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3.041581770303119</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44967</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3.041335746904429</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44968</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3.041320054308569</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44969</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2.051738629962276</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44970</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2.052117616897829</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44972</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3.051870123203377</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44973</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2.051641682735573</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44974</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3.051680760318189</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44976</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3.051434736919498</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44977</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3.051419044323638</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44979</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2.061837619977345</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44981</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2.062216606912899</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44982</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3.061969113218446</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44984</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2.061740672750643</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44985</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3.061779750333258</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44987</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3.061533726934567</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44989</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3.061518034338708</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44990</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2.071936609992414</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44991</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2.072315596927968</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44993</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3.072068103233516</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>44994</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2.071839662765712</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>44995</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3.071878740348327</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>44998</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3.071632716949637</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>44999</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3.071617024353777</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45000</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2.082035600007484</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45001</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2.082414586943037</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45003</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3.082167093248585</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45004</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2.081938652780781</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B54">
+        <v>3.081977730363398</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B55">
+        <v>3.081731706964706</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B56">
+        <v>3.081716014368847</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B57">
+        <v>2.092134590022553</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B58">
+        <v>2.092513576958106</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B59">
+        <v>3.092266083263655</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B60">
+        <v>2.092037642795851</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B61">
+        <v>3.092076720378467</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B62">
+        <v>3.091830696979776</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B63">
+        <v>3.091815004383916</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B64">
+        <v>2.102233580037623</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B65">
+        <v>2.102612566973177</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B66">
+        <v>3.102365073278724</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B67">
+        <v>2.10213663281092</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B68">
+        <v>3.102175710393536</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B69">
+        <v>3.101929686994845</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B70">
+        <v>3.101913994398986</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B71">
+        <v>2.112332570052692</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B72">
+        <v>2.112711556988246</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B73">
+        <v>3.112464063293793</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B74">
+        <v>2.11223562282599</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B75">
+        <v>3.112274700408605</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B76">
+        <v>3.112028677009914</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B77">
+        <v>3.112012984414055</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B78">
+        <v>2.122431560067762</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B79">
+        <v>2.122810547003315</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B80">
+        <v>3.122563053308863</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B81">
+        <v>2.122334612841059</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B82">
+        <v>3.122373690423675</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B83">
+        <v>3.122127667024984</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B84">
+        <v>3.122111974429124</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B85">
+        <v>2.132530550082831</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B86">
+        <v>2.132909537018385</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B87">
+        <v>3.132662043323932</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B88">
+        <v>2.132433602856129</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B89">
+        <v>3.132472680438744</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B90">
+        <v>3.132226657040053</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B91">
+        <v>3.132210964444194</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B92">
+        <v>2.142629540097901</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B93">
+        <v>2.143008527033454</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B94">
+        <v>3.142761033339001</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B95">
+        <v>2.142532592871198</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B96">
+        <v>3.142571670453814</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B97">
+        <v>3.142325647055123</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B98">
+        <v>3.142309954459263</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B99">
+        <v>2.15272853011297</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B100">
+        <v>2.153107517048523</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B101">
+        <v>3.152860023354071</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B102">
+        <v>2.152631582886268</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B103">
+        <v>3.152670660468883</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B104">
+        <v>3.152424637070192</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B105">
+        <v>3.152408944474333</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B106">
+        <v>2.162827520128039</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B107">
+        <v>2.163206507063593</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B108">
+        <v>3.16295901336914</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B109">
+        <v>2.162730572901337</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B110">
+        <v>3.162769650483953</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B111">
+        <v>3.162523627085262</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B112">
+        <v>3.162507934489402</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B113">
+        <v>2.172926510143109</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B114">
+        <v>2.173305497078663</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B115">
+        <v>3.17305800338421</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B116">
+        <v>2.172829562916406</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B117">
+        <v>3.172868640499022</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B118">
+        <v>3.172622617100331</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B119">
+        <v>3.172606924504472</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B120">
+        <v>2.183025500158178</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B121">
+        <v>2.183404487093732</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B122">
+        <v>3.183156993399279</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B123">
+        <v>2.182928552931476</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B124">
+        <v>3.182967630514091</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B125">
+        <v>3.182721607115401</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B126">
+        <v>3.182705914519541</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B127">
+        <v>2.193124490173248</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B128">
+        <v>2.193503477108801</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B129">
+        <v>3.193255983414349</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B130">
+        <v>2.193027542946545</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B131">
+        <v>3.19306662052916</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B132">
+        <v>3.19282059713047</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B133">
+        <v>3.192804904534611</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B134">
+        <v>2.203223480188317</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B135">
+        <v>2.20360246712387</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B136">
+        <v>3.203354973429418</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B137">
+        <v>2.203126532961615</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B138">
+        <v>3.203165610544231</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B139">
+        <v>3.202919587145539</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B140">
+        <v>3.20290389454968</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B141">
+        <v>2.213322470203387</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B142">
+        <v>2.21370145713894</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B143">
+        <v>3.213453963444488</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B144">
+        <v>2.213225522976684</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B145">
+        <v>3.2132646005593</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B146">
+        <v>3.213018577160609</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B147">
+        <v>3.213002884564749</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B148">
+        <v>2.223421460218456</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B149">
+        <v>2.22380044715401</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B150">
+        <v>3.223552953459557</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B151">
+        <v>2.223324512991754</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B152">
+        <v>3.223363590574369</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B153">
+        <v>3.223117567175678</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B154">
+        <v>3.223101874579819</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B155">
+        <v>2.233520450233526</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B156">
+        <v>2.233899437169079</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B157">
+        <v>3.233651943474626</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B158">
+        <v>2.233423503006823</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B159">
+        <v>3.233462580589438</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B160">
+        <v>3.233216557190748</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B161">
+        <v>3.233200864594888</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B162">
+        <v>2.243619440248595</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B163">
+        <v>2.243998427184148</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B164">
+        <v>3.243750933489696</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B165">
+        <v>2.243522493021893</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B166">
+        <v>3.243561570604508</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B167">
+        <v>3.243315547205817</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B168">
+        <v>3.243299854609957</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B169">
+        <v>2.253718430263664</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B170">
+        <v>2.254097417199218</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B171">
+        <v>3.253849923504765</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B172">
+        <v>2.253621483036962</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B173">
+        <v>3.253660560619577</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B174">
+        <v>3.253414537220887</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B175">
+        <v>3.253398844625027</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B176">
+        <v>2.263817420278734</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B177">
+        <v>2.264196407214287</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B178">
+        <v>3.263948913519835</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B179">
+        <v>2.263720473052032</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B180">
+        <v>3.263759550634647</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B181">
+        <v>3.263513527235956</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B182">
+        <v>3.263497834640096</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B183">
+        <v>2.273916410293803</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B184">
+        <v>2.274295397229356</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B185">
+        <v>3.274047903534904</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B186">
+        <v>2.273819463067101</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B187">
+        <v>3.273858540649717</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B188">
+        <v>3.273612517251026</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B189">
+        <v>3.273596824655166</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B190">
+        <v>2.284015400308872</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B191">
+        <v>2.284394387244427</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B192">
+        <v>3.284146893549974</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B193">
+        <v>2.28391845308217</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B194">
+        <v>3.283957530664786</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B195">
+        <v>3.283711507266095</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B196">
+        <v>3.283695814670236</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B197">
+        <v>2.294114390323942</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B198">
+        <v>2.294493377259496</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B199">
+        <v>3.294245883565043</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B200">
+        <v>2.29401744309724</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B201">
+        <v>3.294056520679855</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B202">
+        <v>3.293810497281164</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B203">
+        <v>3.293794804685305</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B204">
+        <v>2.304213380339011</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B205">
+        <v>2.304592367274565</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B206">
+        <v>3.304344873580113</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B207">
+        <v>2.304116433112309</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B208">
+        <v>3.304155510694924</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B209">
+        <v>3.303909487296234</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B210">
+        <v>3.303893794700374</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B211">
+        <v>2.314312370354081</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B212">
+        <v>2.314691357289634</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B213">
+        <v>3.314443863595182</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B214">
+        <v>2.314215423127379</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B215">
+        <v>3.314254500709994</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B216">
+        <v>3.314008477311303</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B217">
+        <v>3.313992784715444</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B218">
+        <v>2.32441136036915</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B219">
+        <v>2.324790347304704</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B220">
+        <v>3.324542853610251</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B221">
+        <v>2.324314413142448</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B222">
+        <v>3.324353490725064</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B223">
+        <v>3.324107467326372</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B224">
+        <v>3.324091774730513</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B225">
+        <v>2.33451035038422</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B226">
+        <v>2.334889337319773</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B227">
+        <v>3.334641843625321</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B228">
+        <v>2.334413403157517</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B229">
+        <v>3.334452480740133</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B230">
+        <v>3.334206457341442</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B231">
+        <v>3.334190764745582</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B232">
+        <v>2.344609340399289</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B233">
+        <v>2.344988327334843</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B234">
+        <v>3.34474083364039</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B235">
+        <v>2.344512393172587</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B236">
+        <v>3.344551470755202</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B237">
+        <v>3.344305447356512</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B238">
+        <v>3.344289754760652</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B239">
+        <v>2.354708330414359</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B240">
+        <v>2.355087317349912</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B241">
+        <v>3.35483982365546</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B242">
+        <v>2.354611383187657</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B243">
+        <v>3.354650460770272</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B244">
+        <v>3.354404437371581</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B245">
+        <v>3.354388744775721</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B246">
+        <v>2.364807320429428</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B247">
+        <v>2.365186307364982</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B248">
+        <v>3.364938813670529</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B249">
+        <v>2.364710373202726</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B250">
+        <v>3.364749450785341</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B251">
+        <v>3.364503427386651</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B252">
+        <v>3.364487734790791</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B253">
+        <v>2.374906310444497</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B254">
+        <v>2.375285297380051</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B255">
+        <v>3.375037803685599</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B256">
+        <v>2.374809363217795</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B257">
+        <v>3.37484844080041</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B258">
+        <v>3.37460241740172</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B259">
+        <v>3.37458672480586</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B260">
+        <v>2.385005300459567</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B261">
+        <v>2.38538428739512</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B262">
+        <v>3.385136793700668</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B263">
+        <v>2.384908353232865</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B264">
+        <v>3.38494743081548</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B265">
+        <v>3.384701407416789</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B266">
+        <v>3.38468571482093</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B267">
+        <v>2.395104290474636</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B268">
+        <v>2.39548327741019</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B269">
+        <v>3.395235783715737</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B270">
+        <v>2.395007343247934</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B271">
+        <v>3.39504642083055</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B272">
+        <v>3.394800397431859</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B273">
+        <v>3.394784704835999</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
